--- a/biology/Microbiologie/Jean-Loup_Avril/Jean-Loup_Avril.xlsx
+++ b/biology/Microbiologie/Jean-Loup_Avril/Jean-Loup_Avril.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Loup Avril, né le 21 avril 1944 à Pontrieux et mort le 8 janvier 2015 à Penvénan, est un bactériologiste et écrivain français. Il a enseigné à la faculté de médecine de Rennes.
 </t>
@@ -511,7 +523,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les antibiotiques, PUF, 1980
 Pêcheurs d'Islande, avec Michel Quéméré, 1984
@@ -524,7 +538,7 @@
 Mille Bretons. Dictionnaire biographique, Rennes, Les Portes du large, octobre 2002 (2e édition, mai 2003)
 La fascinante existence d'Henri Fauconnier : Prix Goncourt 1930, avec Bernard Fauconnier, 2004
 321 Malouins. Dictionnaire biographique, sous la dir. de Jean-Loup Avril, Rennes, Les Portes du large, juin 2004
-Jean-Loup Avril a dirigé 6 thèses[1]
+Jean-Loup Avril a dirigé 6 thèses
 </t>
         </is>
       </c>
